--- a/Testdata/TC_71.xlsx
+++ b/Testdata/TC_71.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>9xkAAB+LCAAAAAAAAAOlGcty48bxV1A6xQcSACWtHjULl0hKCiukqBKhaOVLagiMREQAhgYGknjbS8rxOj7FdsVv78mpVNbxIalKeRPnX1yhdnPKL6TngcGD1NrcbKkkTL+mp7unH7PozdsoNK5JkgY0frhmN601g8Qe9YP48uFaxi4a9oO1Nx20f+uR8BgnOCIMiA3gitPd2zR4uDZhbLprmjc3N82b9SZNLs2WZdnmo0F/5E1IhBtBnDIce2RNc/k/zrXmoI4fDQjDPmZYcj5c6416zQ4JvC7ABjjGlyRptrM0iEma7scsYAFJOWdCMCOd7uCX8mBOq/mgaSNzAV5QtrMg9CVdhVLCFR1sS9wgIk7Lsrcb1nZj3Xbt1q61sWtvNzetnbdyRk2I+jhlI5JcB54AjBiOpoLd2l637Za1YW8jcykRyCoM4KBh6J+Q6yAlfoeEYbqSRUzlwD2PwalXM6aFzBKvEvT6KhwmeDpxAxaS1dRod10jipUuhRAHHdCEeGC/11LpiNwME2VWd9oHrDsJEjbr4tnKsk5Tkgyn3EirsTqoS2O2F5KEnU7B18SHUACEw5KMIPMeZMHUDVIPvoM4I75zgcO0zFRBojOaXKVT7JEjuMcml3EThxT7EHAsSFngpYWABQw6TugURMLubRr6ByBWqbgEoUX3YrAx37dN6VVdehWJhFuFg8GpEWY5+QIcjSb0ZhiHs1E2Tr0kGBO/286pl+IQv5GKu5OljEagRQFCElaCDAbmDP7BJaxjUJd4QYTD4xAMmTrrIKgCQHsZoxcB69Awi2Jt0RoUncGhXHKb21Av0RD8G3Oz07gX5+SSaCmqynBCb/SWiwhhhhJ4L/XyMFtE1Im7AMsduIgRPuGHPAhCKBFlb5Sg1bgYTQhhS4NCYhDPhge86DjtGd8TmQUEQWxCgAPUsXd2thqWDT+uZe2KH9hZo9F+7IsPKDEPGnaLp+2CLkeioywajuESX4szOTbgaiAEpwjbIY6vAHoWsMnRXq79EgySZ76XfhGH4LpOQzwTYG2XMgz1Yi/MfCKzQC++EDHJdVPU9+LRAqgPF9tBOJ65synPBuY9FF1ygbMQChSDPHJZpIgaGO2lV3WaMgidJmHuY4eX/xTqv+dHTQ8yJK9xTY9GHGBC2T0bIbNMz9O8R/bjyz6OLzNIpNqOdbiOMJ4D3ATHKT+Ozpu1YFtOhHK/yHzuSGcNMxFO0lkUsMis0SGXRFOa4HAAhgkOsljUTFUUwMIDzCZqBbc3JF5uZLNg1VxVzXLFf4xMXEN5DJ7k1e2uAQURP4vsNAqaAob4KQfUh1qPw2CcVIJsKQ4cVlTAPNz44VashrkPoNuE/PILMuMtSLFQcB6zjp0jxAp1QCVndLKx3dq0HkBbJdZInPiQQo8bR0BqdMmY7RpdGhFe13aNdnvXqKCnNA0YOFeaSl2/15ZS5kcHCXk7g/56JlQbQPhWAFU8JNjLIMbhAp1GFPTOAKruJJyVKOXJ+9QDwrsP/jX/7rP54+/mT57+9x+fzD/95/w3X8NHuw2/FPLZH+7+/L08tWRCLh6HRCjmtre3rfUNCD8NQiprQPH3M48J2Pm5aAb0GqmmViw6+73OYb8t0owG5uy8z8j4FenjGc2K5UgeRmwkPG3mASJJHDdPW2pdwXYJ7wDk3eT96zWpUpfx9zFKW7x4/vWL58/u5VYGK0oOVJpWw9r4CRXJXucVyVpakfhcINu+fOrY5FOHvV4irtGgExieoMvTdur5zrpt7VhbW5atU7yv43oZUR2lJLn40qzxSVCHZjFLZjoEyuscKeLfhcui0fJGlBYqVP/23su/fFihUtZVkKoUUI5miYwmM18I0UcnrjEanp509g13f8TjpMCV6KTwVxCr3fW9KgfN4q2rhNQyqBT3Ssb6jocJzaYLGaOALqFcmjsWsTVOYZtF1QrcEnrltc9+u4xBnUTFzGkcMD3IlWGogpGgEl5dwY+///ff35k/+3L+5Ku7996dP/1g/v7Tihy1m55yIHThgpSXOpIhi6nKUoOgs5Gw6ZX1q1IlUUDeIh7TIGapY9uboj1USwS8Nhcn/qJeBNVNSBZmA3gNgn6O0/1bpi6rc4TMKgAUnWIorLRopDVA5uXCvP/5/Iu7T/9699G3L9/50/zJH+e/++jF8y9ffvNU3qS7D7+9e/8blbnryV3owttz2e8ZYtzzDH7DDF6mjR8e/96IKTOguzAykWV+ePxxSRhXVPQhhWTo3rQiVRUWSMvMnM8oqaJ1qPBpFlnrO7wsrWsKVZjoNPCKTd5qcFHQghoC8bOe28hSYlBonN6Ak1SJC+afyqdYZJk83rJadkthpTb8CGOclkx/GNIxDo0cIaapGkmF69UMBa3Y77A/bO/1CxKpxDDxYfiy+EjIP1DePfIy0UvzlZ4hCghgocfzspDPvwtkiygtuZTOTDVJXuz5/FnRsSwxqlVrXoUCxvEkkd1OrN4mR9kU+t58Wr4fL55hSq3ukWxLy81vse51q3hYl7BQ3KpoDhB4kaEUSmarXsqHVtm5HnHTFEvAVZ5uwBzq+VF2T9cBuMTkiWc/SWiyNPsUmJxsAE0zZBSzsLimET6VDbZf+CoH5BlPf8ghT52QdklI2Gpvc2bBPYAO+HV5wfersvbSYegrY642ZWizFALKD5Q8UP7f90kZbHtJAs0Sf81Y+UExn1FPYLRdURt5FMHIhz3YXb34HQRJyh7xTKC+JORcQ85l1/mIz1byQ6zPnQ31Tg0EZlm6WVEzv7pMPhPTsB9EwYoToJXf76oQsOV0Ktuy3mqRwkvLEbmFprEkAZLi+NdQNvgYs5o0GbCQSzU/f5ZJg8sJW1WxrTEmPhlbDW9MWo0NH5r7HUJgIrDhN/ZaMEZs8jcdJRwyR0BuVtzEzB1W/PeN8z+Dai8D9xkAAA==</t>
+          <t>zhsAAB+LCAAAAAAAAAOlWUtvI8cR/isDnZIDOQ89KAm9Y4gPKURIURBH0cqXYDjTFDuaBzPTI4m3BQzHydo++YE4ceJsLgmCrONDAgTewPkvRqjdnPIXUv2YJ6ldj7wgdqfrq6qurq6uqu5Fb936nnKNo5iEwaMNvaltKDhwQpcEl482Ejpt6Dsbb5mod+tg78SObB9TYFZAKoj3b2PyaGNG6XxfVW9ubpo3m80wulQNTdPVx8PB2Jlh326QIKZ24OCNTMp9s9SGiTquP8TUdm1qC8lHG/1xv9nBxOkCbWgH9iWOmu0kJgGO415ACSU4ZpIRtinudIc/EQszjeZOU0fqCj3nbCfEcwVfiVPQJR9Miy3iY9PQDK2h7TaMLUtr7W/r+/puc3e79XYqmDGigR3TMY6uicMJY2r7cy6u7RpbWmtb13eRupYJdOUOMNHIc0/xNYmx28GeF9fyiCo38MChsOp6ztSQWpCVih5uwlFkz2cWoR6uK34YRtgBRz1o7mN8M4qk/6z5AFBrRiK66NqL2rrOYhyN5swb9URN1A0DeuDhiJ7NYVOxC3sOgEmjBCP1HjAX6pLYgW8SJNg1p7YXF4VKIDoPo6t4bjv4GA6synTcBF5ouxBZlMSUOHGuYAVBJ1E4B5Uwezv03ENQK01cA2Sq+wH4mM3bDsOrqvYyiHgQ8HCATfVtmrKv0NF4Ft6MAm8xTiaxE5EJdrvtlHsthtjRk9KdJKahD1bkJCRoBcpwqC7gD5y2KoK62CG+7Z144MjY3ARFJQI6SGg4JbQTeokfZB6tUNE5LMrCt6kPsyEawf4GzO1h0A9SdsG0FioLnIY32ZSrAHdDgXwQO2mYrQJV5i7Q0g1cRfiesEUeEg9qQXE3CtRyXIxnGNO1QSEQxNLeIasuZnvB5kRqTkEQmxDgQIXEqe004Gdolqbt8x/MnMGoF7g5n240NvUCXwqi48QfTeAQX/M1mTpgFRKCVXhtzw6ugHpO6Oz4ILV+DYLEmu/lX8UQHNe5Zy84OfNLkYb6geMlLhZZoB9MeUwy2yT3vThaIQ3gYLMkgKd24kGhoZAmLvMMUCGjg/iqylMkobPIS7fQZGU8hjruuH7TgQTIalXTCX1GUKF8no+RWuRnWdzBveByYAeXCeTJzE1VehZA7IhbkR3EbD1ZWqzE0nomlLpdpGtT7MUo4dEi9iIEFKkVPmRhfx5GtjcEx5DDJOC1T+Z88OTQpjM5gsPpYafg5VQ0kypblhr+JjZ+ysQyWA6Xh7dC5ExsLaJjyHlyGmKrHIYu1GzbI5OoFENrMdiwvMCl0cQWV7PYpXsAXSOkjx/jBWsl8oGkW4s5NvUU4CPUAZPM8enWrrGt7UB7xMeIr/gohF418IFV6eIJ3Ve6oY9Z2dpX2u19pQTPw5hQ2FzhKnm6HqylKI8OI/zzBPrkBTdtCOFbIpRxyJ+XJLC9Fb4MyPnNIRTVmbcocIqVD0IHGO8+/vfy68+XT75ePn32v3/9ZvnHd5a/eBc+2m34S4LPf33312/EqoUQsuyJh7lhVnt3V9vcgvDLSIj5XOVF300cymkXF7zWZ2Mkm1M+6PT6naNBGwKtQEzFWRuRsCMysBdhkg/HYjF8Ir7TahoggsW0uL58XEK7mBV4cTZZH3qNy9xF/D5B4YuXL/708sXze6Wlw0oFx2hoWw1Nf1PB0TdZwdHWFhzW34uuTt4e9L2GBj+jwFzhQadwCYImLvNT3zU3dW1Pa7U0PbUfaGlcr2OqQlKTZV+qFTlB6oRJQKNFFgLFcQry+LfgsGSwOBGFgQzVf7z/6m+flLikdyWlrAWMC5NIRJOaDrjq41NLGY/OTjs9xeqNWZzkWIFPKH8Ns5w9O1fFoFk9daWQWkcV6l4rWJ3xKAqT+UrGyKlrONfmjlW0Isl9s2pajq3hl7v2+S/XCciVyJg5Cwg1211L8YMsyDgNlRBBKuDyCH72zX/++d7y+RfLp3+4e/9Xy2cfLz98VtIjZ8suMRC6cECKwyySIYvJylKhoPMx9+mV9tNCJZFE1gGehCSgsanr27z7k0MEsjpTx/9FfR+qG9fM3Qb0CgX9yI57t1QeVvMYqWUCGDq3obCGeZ+cEURezt3739/9/u63f7/79KtX7/1l+fTPyw8+ffnii1dfPhMn6e6Tr+4+/FJm7mpy57aw7ls0fAq/zTkKO2EKK9PKt08+UoKQKtBdKAnPMt8++aygjBnK+5BcM3RvmSFlE1ZYi8JMTimYktlQkstERK3vsLK0mXHIwhTOiZNP8naDqYIWVOHAD/pWI4mxEkLj9ENYSZk5F/6uclJElMmTlmbohkSFNWwJEzsuuP7ICye2p6QAvyxVWEpSrxfIefl8R4NR+2CQswgjRpELdyuN3fjYB+rHaf+YXQtyCqDQ1zmJx660K2yrEEq/CilMlZfD6YHLngRNTdP0Bv8VSleJA27YUSQ6nEC+K46TOfS66QX4fpy/rBTa22PRihYb3nzc75ZxGBdQKGhlmBE4zrOShESG6sfsHiq61WPmmnwIWOk1Btwhnw5Fx3RNYBtUlmx6URRGazNOjqRsQ2iUIYuoucczHpVNKZpqN9+rlJBmueyDteVZMgy72MO09rtaKj2ErvehsrD3dUX78chzpTPr3Swyt+QKio+LLFDqGnMQRdAKsaeI2q+BAxJc9eut3mxhbXtvqhvGFE+3Ws4ebk1a+t62o287xmQXMqVQyi6aTAW7ibBrWr1JoAEsi+dX6lO4ZNfUJhzMBdm1EzzFD6RM7NkYHZIopo9ZipJfgnKRUS5EO/yY2Sc++PjC3BFjwNXiXGrJ6DS9UPEMHXoD4pOaN1MtzUFlJRAF87loF+vuJ5S8Y3wLzWxBAyTryc+gnLHrVT1t4lBBjs/kU13jZFJbnZoKnwDO4uph0j0X+rKHS/M3XeJ9DwN44/VQFf0gJpczWndfjb29TbyDjYYxdZzGFgwaUIwnDdee7umaNt10tw32EieVQ3Eg+KbmJKykkDixvfpyauV/5cz/A0tPEVLOGwAA</t>
         </r>
       </text>
     </comment>
@@ -40,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +113,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,385 +430,49 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>37347</v>
+        <v>38899</v>
       </c>
       <c r="B2" s="4">
-        <v>-8</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>37377</v>
+        <v>38930</v>
       </c>
       <c r="B3" s="4">
-        <v>-10</v>
+        <v>-18024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>37408</v>
+        <v>38961</v>
       </c>
       <c r="B4" s="4">
-        <v>-13</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>37438</v>
+        <v>38991</v>
       </c>
       <c r="B5" s="4">
-        <v>-9</v>
+        <v>-145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>37469</v>
+        <v>39022</v>
       </c>
       <c r="B6" s="4">
-        <v>-5</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>37500</v>
+        <v>39052</v>
       </c>
       <c r="B7" s="4">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>37530</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>37561</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>37591</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>37622</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
-        <v>37653</v>
-      </c>
-      <c r="B12" s="4">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
-        <v>37681</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3">
-        <v>37712</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3">
-        <v>37742</v>
-      </c>
-      <c r="B15" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3">
-        <v>37773</v>
-      </c>
-      <c r="B16" s="4">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3">
-        <v>37803</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3">
-        <v>37834</v>
-      </c>
-      <c r="B18" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>37865</v>
-      </c>
-      <c r="B19" s="4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3">
-        <v>37895</v>
-      </c>
-      <c r="B20" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3">
-        <v>37926</v>
-      </c>
-      <c r="B21" s="4">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3">
-        <v>37956</v>
-      </c>
-      <c r="B22" s="4">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3">
-        <v>37987</v>
-      </c>
-      <c r="B23" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <v>38018</v>
-      </c>
-      <c r="B24" s="4">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <v>38047</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3">
-        <v>38078</v>
-      </c>
-      <c r="B26" s="4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3">
-        <v>38139</v>
-      </c>
-      <c r="B27" s="4">
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3">
-        <v>38384</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3">
-        <v>38412</v>
-      </c>
-      <c r="B29" s="4">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3">
-        <v>38443</v>
-      </c>
-      <c r="B30" s="4">
-        <v>-142</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3">
-        <v>38473</v>
-      </c>
-      <c r="B31" s="4">
-        <v>-133</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3">
-        <v>38504</v>
-      </c>
-      <c r="B32" s="4">
-        <v>-133</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3">
-        <v>38534</v>
-      </c>
-      <c r="B33" s="4">
-        <v>-134</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3">
-        <v>38565</v>
-      </c>
-      <c r="B34" s="4">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3">
-        <v>38596</v>
-      </c>
-      <c r="B35" s="4">
-        <v>-137</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3">
-        <v>38626</v>
-      </c>
-      <c r="B36" s="4">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3">
-        <v>38657</v>
-      </c>
-      <c r="B37" s="4">
-        <v>-131</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3">
-        <v>38687</v>
-      </c>
-      <c r="B38" s="4">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3">
-        <v>38749</v>
-      </c>
-      <c r="B39" s="4">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3">
-        <v>38777</v>
-      </c>
-      <c r="B40" s="4">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3">
-        <v>38808</v>
-      </c>
-      <c r="B41" s="4">
-        <v>-158</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3">
-        <v>38838</v>
-      </c>
-      <c r="B42" s="4">
-        <v>-151</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3">
-        <v>38869</v>
-      </c>
-      <c r="B43" s="4">
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3">
-        <v>38899</v>
-      </c>
-      <c r="B44" s="4">
-        <v>-149</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>38930</v>
-      </c>
-      <c r="B45" s="4">
-        <v>-18024</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3">
-        <v>38961</v>
-      </c>
-      <c r="B46" s="4">
-        <v>-143</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3">
-        <v>38991</v>
-      </c>
-      <c r="B47" s="4">
-        <v>-145</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3">
-        <v>39022</v>
-      </c>
-      <c r="B48" s="4">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3">
-        <v>39052</v>
-      </c>
-      <c r="B49" s="4">
         <v>-153</v>
       </c>
     </row>
@@ -808,4 +480,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>7</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCACC19F-B5BC-4F65-8A63-FA072EDD34DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_71.xlsx
+++ b/Testdata/TC_71.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>zhsAAB+LCAAAAAAAAAOlWUtvI8cR/isDnZIDOQ89KAm9Y4gPKURIURBH0cqXYDjTFDuaBzPTI4m3BQzHydo++YE4ceJsLgmCrONDAgTewPkvRqjdnPIXUv2YJ6ldj7wgdqfrq6qurq6uqu5Fb936nnKNo5iEwaMNvaltKDhwQpcEl482Ejpt6Dsbb5mod+tg78SObB9TYFZAKoj3b2PyaGNG6XxfVW9ubpo3m80wulQNTdPVx8PB2Jlh326QIKZ24OCNTMp9s9SGiTquP8TUdm1qC8lHG/1xv9nBxOkCbWgH9iWOmu0kJgGO415ACSU4ZpIRtinudIc/EQszjeZOU0fqCj3nbCfEcwVfiVPQJR9Miy3iY9PQDK2h7TaMLUtr7W/r+/puc3e79XYqmDGigR3TMY6uicMJY2r7cy6u7RpbWmtb13eRupYJdOUOMNHIc0/xNYmx28GeF9fyiCo38MChsOp6ztSQWpCVih5uwlFkz2cWoR6uK34YRtgBRz1o7mN8M4qk/6z5AFBrRiK66NqL2rrOYhyN5swb9URN1A0DeuDhiJ7NYVOxC3sOgEmjBCP1HjAX6pLYgW8SJNg1p7YXF4VKIDoPo6t4bjv4GA6synTcBF5ouxBZlMSUOHGuYAVBJ1E4B5Uwezv03ENQK01cA2Sq+wH4mM3bDsOrqvYyiHgQ8HCATfVtmrKv0NF4Ft6MAm8xTiaxE5EJdrvtlHsthtjRk9KdJKahD1bkJCRoBcpwqC7gD5y2KoK62CG+7Z144MjY3ARFJQI6SGg4JbQTeokfZB6tUNE5LMrCt6kPsyEawf4GzO1h0A9SdsG0FioLnIY32ZSrAHdDgXwQO2mYrQJV5i7Q0g1cRfiesEUeEg9qQXE3CtRyXIxnGNO1QSEQxNLeIasuZnvB5kRqTkEQmxDgQIXEqe004Gdolqbt8x/MnMGoF7g5n240NvUCXwqi48QfTeAQX/M1mTpgFRKCVXhtzw6ugHpO6Oz4ILV+DYLEmu/lX8UQHNe5Zy84OfNLkYb6geMlLhZZoB9MeUwy2yT3vThaIQ3gYLMkgKd24kGhoZAmLvMMUCGjg/iqylMkobPIS7fQZGU8hjruuH7TgQTIalXTCX1GUKF8no+RWuRnWdzBveByYAeXCeTJzE1VehZA7IhbkR3EbD1ZWqzE0nomlLpdpGtT7MUo4dEi9iIEFKkVPmRhfx5GtjcEx5DDJOC1T+Z88OTQpjM5gsPpYafg5VQ0kypblhr+JjZ+ysQyWA6Xh7dC5ExsLaJjyHlyGmKrHIYu1GzbI5OoFENrMdiwvMCl0cQWV7PYpXsAXSOkjx/jBWsl8oGkW4s5NvUU4CPUAZPM8enWrrGt7UB7xMeIr/gohF418IFV6eIJ3Ve6oY9Z2dpX2u19pQTPw5hQ2FzhKnm6HqylKI8OI/zzBPrkBTdtCOFbIpRxyJ+XJLC9Fb4MyPnNIRTVmbcocIqVD0IHGO8+/vfy68+XT75ePn32v3/9ZvnHd5a/eBc+2m34S4LPf33312/EqoUQsuyJh7lhVnt3V9vcgvDLSIj5XOVF300cymkXF7zWZ2Mkm1M+6PT6naNBGwKtQEzFWRuRsCMysBdhkg/HYjF8Ir7TahoggsW0uL58XEK7mBV4cTZZH3qNy9xF/D5B4YuXL/708sXze6Wlw0oFx2hoWw1Nf1PB0TdZwdHWFhzW34uuTt4e9L2GBj+jwFzhQadwCYImLvNT3zU3dW1Pa7U0PbUfaGlcr2OqQlKTZV+qFTlB6oRJQKNFFgLFcQry+LfgsGSwOBGFgQzVf7z/6m+flLikdyWlrAWMC5NIRJOaDrjq41NLGY/OTjs9xeqNWZzkWIFPKH8Ns5w9O1fFoFk9daWQWkcV6l4rWJ3xKAqT+UrGyKlrONfmjlW0Isl9s2pajq3hl7v2+S/XCciVyJg5Cwg1211L8YMsyDgNlRBBKuDyCH72zX/++d7y+RfLp3+4e/9Xy2cfLz98VtIjZ8suMRC6cECKwyySIYvJylKhoPMx9+mV9tNCJZFE1gGehCSgsanr27z7k0MEsjpTx/9FfR+qG9fM3Qb0CgX9yI57t1QeVvMYqWUCGDq3obCGeZ+cEURezt3739/9/u63f7/79KtX7/1l+fTPyw8+ffnii1dfPhMn6e6Tr+4+/FJm7mpy57aw7ls0fAq/zTkKO2EKK9PKt08+UoKQKtBdKAnPMt8++aygjBnK+5BcM3RvmSFlE1ZYi8JMTimYktlQkstERK3vsLK0mXHIwhTOiZNP8naDqYIWVOHAD/pWI4mxEkLj9ENYSZk5F/6uclJElMmTlmbohkSFNWwJEzsuuP7ICye2p6QAvyxVWEpSrxfIefl8R4NR+2CQswgjRpELdyuN3fjYB+rHaf+YXQtyCqDQ1zmJx660K2yrEEq/CilMlZfD6YHLngRNTdP0Bv8VSleJA27YUSQ6nEC+K46TOfS66QX4fpy/rBTa22PRihYb3nzc75ZxGBdQKGhlmBE4zrOShESG6sfsHiq61WPmmnwIWOk1Btwhnw5Fx3RNYBtUlmx6URRGazNOjqRsQ2iUIYuoucczHpVNKZpqN9+rlJBmueyDteVZMgy72MO09rtaKj2ErvehsrD3dUX78chzpTPr3Swyt+QKio+LLFDqGnMQRdAKsaeI2q+BAxJc9eut3mxhbXtvqhvGFE+3Ws4ebk1a+t62o287xmQXMqVQyi6aTAW7ibBrWr1JoAEsi+dX6lO4ZNfUJhzMBdm1EzzFD6RM7NkYHZIopo9ZipJfgnKRUS5EO/yY2Sc++PjC3BFjwNXiXGrJ6DS9UPEMHXoD4pOaN1MtzUFlJRAF87loF+vuJ5S8Y3wLzWxBAyTryc+gnLHrVT1t4lBBjs/kU13jZFJbnZoKnwDO4uph0j0X+rKHS/M3XeJ9DwN44/VQFf0gJpczWndfjb29TbyDjYYxdZzGFgwaUIwnDdee7umaNt10tw32EieVQ3Eg+KbmJKykkDixvfpyauV/5cz/A0tPEVLOGwAA</t>
+          <t>9xkAAB+LCAAAAAAAAAOlGcty48bxV1A6xQcSACWtHjULl0hKCiukqBKhaOVLagiMREQAhgYGknjbS8rxOj7FdsVv78mpVNbxIalKeRPnX1yhdnPKL6TngcGD1NrcbKkkTL+mp7unH7PozdsoNK5JkgY0frhmN601g8Qe9YP48uFaxi4a9oO1Nx20f+uR8BgnOCIMiA3gitPd2zR4uDZhbLprmjc3N82b9SZNLs2WZdnmo0F/5E1IhBtBnDIce2RNc/k/zrXmoI4fDQjDPmZYcj5c6416zQ4JvC7ABjjGlyRptrM0iEma7scsYAFJOWdCMCOd7uCX8mBOq/mgaSNzAV5QtrMg9CVdhVLCFR1sS9wgIk7Lsrcb1nZj3Xbt1q61sWtvNzetnbdyRk2I+jhlI5JcB54AjBiOpoLd2l637Za1YW8jcykRyCoM4KBh6J+Q6yAlfoeEYbqSRUzlwD2PwalXM6aFzBKvEvT6KhwmeDpxAxaS1dRod10jipUuhRAHHdCEeGC/11LpiNwME2VWd9oHrDsJEjbr4tnKsk5Tkgyn3EirsTqoS2O2F5KEnU7B18SHUACEw5KMIPMeZMHUDVIPvoM4I75zgcO0zFRBojOaXKVT7JEjuMcml3EThxT7EHAsSFngpYWABQw6TugURMLubRr6ByBWqbgEoUX3YrAx37dN6VVdehWJhFuFg8GpEWY5+QIcjSb0ZhiHs1E2Tr0kGBO/286pl+IQv5GKu5OljEagRQFCElaCDAbmDP7BJaxjUJd4QYTD4xAMmTrrIKgCQHsZoxcB69Awi2Jt0RoUncGhXHKb21Av0RD8G3Oz07gX5+SSaCmqynBCb/SWiwhhhhJ4L/XyMFtE1Im7AMsduIgRPuGHPAhCKBFlb5Sg1bgYTQhhS4NCYhDPhge86DjtGd8TmQUEQWxCgAPUsXd2thqWDT+uZe2KH9hZo9F+7IsPKDEPGnaLp+2CLkeioywajuESX4szOTbgaiAEpwjbIY6vAHoWsMnRXq79EgySZ76XfhGH4LpOQzwTYG2XMgz1Yi/MfCKzQC++EDHJdVPU9+LRAqgPF9tBOJ65synPBuY9FF1ygbMQChSDPHJZpIgaGO2lV3WaMgidJmHuY4eX/xTqv+dHTQ8yJK9xTY9GHGBC2T0bIbNMz9O8R/bjyz6OLzNIpNqOdbiOMJ4D3ATHKT+Ozpu1YFtOhHK/yHzuSGcNMxFO0lkUsMis0SGXRFOa4HAAhgkOsljUTFUUwMIDzCZqBbc3JF5uZLNg1VxVzXLFf4xMXEN5DJ7k1e2uAQURP4vsNAqaAob4KQfUh1qPw2CcVIJsKQ4cVlTAPNz44VashrkPoNuE/PILMuMtSLFQcB6zjp0jxAp1QCVndLKx3dq0HkBbJdZInPiQQo8bR0BqdMmY7RpdGhFe13aNdnvXqKCnNA0YOFeaSl2/15ZS5kcHCXk7g/56JlQbQPhWAFU8JNjLIMbhAp1GFPTOAKruJJyVKOXJ+9QDwrsP/jX/7rP54+/mT57+9x+fzD/95/w3X8NHuw2/FPLZH+7+/L08tWRCLh6HRCjmtre3rfUNCD8NQiprQPH3M48J2Pm5aAb0GqmmViw6+73OYb8t0owG5uy8z8j4FenjGc2K5UgeRmwkPG3mASJJHDdPW2pdwXYJ7wDk3eT96zWpUpfx9zFKW7x4/vWL58/u5VYGK0oOVJpWw9r4CRXJXucVyVpakfhcINu+fOrY5FOHvV4irtGgExieoMvTdur5zrpt7VhbW5atU7yv43oZUR2lJLn40qzxSVCHZjFLZjoEyuscKeLfhcui0fJGlBYqVP/23su/fFihUtZVkKoUUI5miYwmM18I0UcnrjEanp509g13f8TjpMCV6KTwVxCr3fW9KgfN4q2rhNQyqBT3Ssb6jocJzaYLGaOALqFcmjsWsTVOYZtF1QrcEnrltc9+u4xBnUTFzGkcMD3IlWGogpGgEl5dwY+///ff35k/+3L+5Ku7996dP/1g/v7Tihy1m55yIHThgpSXOpIhi6nKUoOgs5Gw6ZX1q1IlUUDeIh7TIGapY9uboj1USwS8Nhcn/qJeBNVNSBZmA3gNgn6O0/1bpi6rc4TMKgAUnWIorLRopDVA5uXCvP/5/Iu7T/9699G3L9/50/zJH+e/++jF8y9ffvNU3qS7D7+9e/8blbnryV3owttz2e8ZYtzzDH7DDF6mjR8e/96IKTOguzAykWV+ePxxSRhXVPQhhWTo3rQiVRUWSMvMnM8oqaJ1qPBpFlnrO7wsrWsKVZjoNPCKTd5qcFHQghoC8bOe28hSYlBonN6Ak1SJC+afyqdYZJk83rJadkthpTb8CGOclkx/GNIxDo0cIaapGkmF69UMBa3Y77A/bO/1CxKpxDDxYfiy+EjIP1DePfIy0UvzlZ4hCghgocfzspDPvwtkiygtuZTOTDVJXuz5/FnRsSwxqlVrXoUCxvEkkd1OrN4mR9kU+t58Wr4fL55hSq3ukWxLy81vse51q3hYl7BQ3KpoDhB4kaEUSmarXsqHVtm5HnHTFEvAVZ5uwBzq+VF2T9cBuMTkiWc/SWiyNPsUmJxsAE0zZBSzsLimET6VDbZf+CoH5BlPf8ghT52QdklI2Gpvc2bBPYAO+HV5wfersvbSYegrY642ZWizFALKD5Q8UP7f90kZbHtJAs0Sf81Y+UExn1FPYLRdURt5FMHIhz3YXb34HQRJyh7xTKC+JORcQ85l1/mIz1byQ6zPnQ31Tg0EZlm6WVEzv7pMPhPTsB9EwYoToJXf76oQsOV0Ktuy3mqRwkvLEbmFprEkAZLi+NdQNvgYs5o0GbCQSzU/f5ZJg8sJW1WxrTEmPhlbDW9MWo0NH5r7HUJgIrDhN/ZaMEZs8jcdJRwyR0BuVtzEzB1W/PeN8z+Dai8D9xkAAA==</t>
         </r>
       </text>
     </comment>
@@ -40,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,14 +63,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,7 +105,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -410,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,49 +422,385 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>38899</v>
+        <v>37347</v>
       </c>
       <c r="B2" s="4">
-        <v>-149</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>38930</v>
+        <v>37377</v>
       </c>
       <c r="B3" s="4">
-        <v>-18024</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>38961</v>
+        <v>37408</v>
       </c>
       <c r="B4" s="4">
-        <v>-143</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>38991</v>
+        <v>37438</v>
       </c>
       <c r="B5" s="4">
-        <v>-145</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>39022</v>
+        <v>37469</v>
       </c>
       <c r="B6" s="4">
-        <v>-150</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
+        <v>37500</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>37530</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>37561</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>37591</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>37622</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>37653</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>37681</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>37712</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>37742</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>37773</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>37803</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>37834</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>37865</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>37895</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>37926</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>37956</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>37987</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>38018</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3">
+        <v>38047</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>38078</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3">
+        <v>38139</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3">
+        <v>38384</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>38412</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3">
+        <v>38443</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3">
+        <v>38473</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>38504</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3">
+        <v>38534</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-134</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3">
+        <v>38565</v>
+      </c>
+      <c r="B34" s="4">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>38596</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3">
+        <v>38626</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3">
+        <v>38657</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>38687</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>38749</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3">
+        <v>38777</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>38808</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3">
+        <v>38838</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3">
+        <v>38869</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>38899</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3">
+        <v>38930</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-18024</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>38961</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>38991</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>39022</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3">
         <v>39052</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B49" s="4">
         <v>-153</v>
       </c>
     </row>
@@ -480,37 +808,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>7</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCACC19F-B5BC-4F65-8A63-FA072EDD34DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>